--- a/silentnoname/evidence.xlsx
+++ b/silentnoname/evidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silent/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silent/git/gon-evidence/silentnoname/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E5E596-9A85-A145-9EC2-58EE6242EBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEC2BC6-7431-F046-8629-FE32F05637F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="20660" tabRatio="500" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="20660" tabRatio="500" firstSheet="2" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
   <si>
     <t>TeamName</t>
   </si>
@@ -83,12 +83,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>silent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -373,6 +367,46 @@
   </si>
   <si>
     <t>3121541AC26156F49CEBC3B7FDA291F4B9BFEA3AB6B713026A865ADDA1F9B032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE50994AB0C6BABE3201DA17B035BC4E3232DF8DAFCBF0E62089B3ED38302E9D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>854E23DA2FCE49D52A3C12665C449A6CC8ADA3986539E7EA9A5FB89C63E4C56D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>093F4B89CFD94A0EC03C9797968B6FB6E31E870278419000BF7EAF2EE4A5357B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F6AEFBC7AA7459F6D50FEAB3EFEAA478F5B1D8E6D05EEED01F677E730DC2E96</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D22BCD39B9F33F1F98C205A960135778165FA11D3D781A92970698A234C5A74F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDCF8522F8232B1D7DEE1AE97714B592CA7AEF2596EBBA80587978FC69DE382</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71FE9ECA7180703F4ABFDFABC3526BB03BC476C8A4491F217476F8BA511AF1BA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21564C47C68821E0F48932EAA4740F53FFB9D7997F06BEAFA13C15213F0658A7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F50E8154400425B1F5CF6C3AF1813485522AE2D58B0E3DCA12992C1724402448</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1436165C8E461107DF17E3CBD962BC9DDBD0460AF0AA56ADBC0391E59DE66359</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,12 +493,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
@@ -837,14 +868,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
@@ -874,28 +905,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -914,8 +945,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -927,11 +958,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -951,8 +982,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -964,11 +995,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -988,8 +1019,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -1001,11 +1032,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>44</v>
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1025,8 +1056,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -1038,11 +1069,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>46</v>
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1062,8 +1093,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -1075,35 +1106,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>28</v>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1123,8 +1154,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -1136,35 +1167,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>31</v>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1184,8 +1215,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -1197,35 +1228,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>59</v>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1245,8 +1276,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -1258,35 +1289,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>59</v>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1306,8 +1337,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -1319,35 +1350,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>28</v>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1367,8 +1398,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -1380,35 +1411,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>55</v>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1459,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="17.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -1440,11 +1471,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>21</v>
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1464,8 +1495,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -1477,51 +1508,51 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>28</v>
+      <c r="B7" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1535,70 +1566,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B2:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>32</v>
+      <c r="A1" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>31</v>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1612,11 +1643,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1">
@@ -1625,13 +1658,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
+      <c r="A3" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1645,11 +1678,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1">
@@ -1658,13 +1693,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
+      <c r="A3" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1678,11 +1713,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1">
@@ -1691,13 +1728,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
+      <c r="A3" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1712,12 +1749,12 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1">
@@ -1726,13 +1763,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
+      <c r="A3" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1746,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1758,13 +1795,13 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
+      <c r="A3" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1783,8 +1820,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="1" max="2" width="17.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1">
@@ -1799,25 +1836,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1837,9 +1874,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="2" width="17.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1">
@@ -1857,17 +1894,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1887,9 +1924,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="2" width="17.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1">
@@ -1907,17 +1944,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1937,14 +1974,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="2" width="17.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>32</v>
+      <c r="A1" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1957,17 +1994,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1987,10 +2024,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1">
@@ -2008,17 +2045,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2038,8 +2075,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -2051,11 +2088,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>35</v>
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2075,8 +2112,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -2088,11 +2125,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>37</v>
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
